--- a/files/products.xlsx
+++ b/files/products.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>LOCATION</t>
   </si>
@@ -22,12 +22,42 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
+    <t>C:\Users\LENOVO T430\Documents\GitHub\Bot2.0\images\CaboMVP.jpeg</t>
+  </si>
+  <si>
+    <t>Cabo MVP para Micro-USB(Tradicional) altíssima qualidade por apenas R$25,00</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO T430\Documents\GitHub\Bot2.0\images\Magnetico.jpeg</t>
+  </si>
+  <si>
+    <t>Cabo de entrada magnética com cabeças IOS, Type-C e Micro-usb máxima qualidade por apenas R$45,00</t>
+  </si>
+  <si>
     <t>C:\Users\LENOVO T430\Documents\GitHub\Bot2.0\images\X9.jpeg</t>
   </si>
   <si>
     <t>Fone de ouvido com microfone X9 mini 5.0 bluetooth sem fio fones handsfree estéreo de excelente qualidade na promoção por apenas R$ 25,00</t>
   </si>
   <si>
+    <t>C:\Users\LENOVO T430\Documents\GitHub\Bot2.0\images\hrebo.jpeg</t>
+  </si>
+  <si>
+    <t>Cabo de carregador HREBO tradicional(micro-usb) preço promocional de R$ 30,00</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO T430\Documents\GitHub\Bot2.0\images\CaboJBL.jpeg</t>
+  </si>
+  <si>
+    <t>Cabo de carregador JBL para dispositivos IOS 10, 1m de comprimento, carga rápida por R$30,00</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO T430\Documents\GitHub\Bot2.0\images\CarregadorCompleto.jpeg</t>
+  </si>
+  <si>
+    <t>Carregador HMASTON PRO completo com cabo TIPO-C  com 2 entradas USB R$ 40,00</t>
+  </si>
+  <si>
     <t>C:\Users\LENOVO T430\Documents\GitHub\Bot2.0\images\XB450.jpeg</t>
   </si>
   <si>
@@ -98,12 +128,6 @@
   </si>
   <si>
     <t>Fone de Ouvido i12 Tws  Inpods bluetooth   inpods12 intra-auricular sem fio nas cores Preto, Branco e Rosa com preço promocional de lançamento por apenas R$ 60,00</t>
-  </si>
-  <si>
-    <t>C:\Users\LENOVO T430\Documents\GitHub\Bot2.0\images\Tesoura.jpeg</t>
-  </si>
-  <si>
-    <t>Tesoura R$10,00</t>
   </si>
   <si>
     <t>C:\Users\LENOVO T430\Documents\GitHub\Bot2.0\images\f21.jpeg</t>
@@ -534,7 +558,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -744,6 +768,38 @@
         <v>49</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
